--- a/GameData/Excel/select_reward.xlsx
+++ b/GameData/Excel/select_reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C6DE0-D468-4C3B-AB53-A04C854462C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02C854-B856-4D65-AF9B-EBD86CB06588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13236" yWindow="6132" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="13230" yWindow="6135" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="select_reward" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -347,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,20 +501,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -559,37 +559,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1001</v>
+        <v>12001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>1002</v>
+        <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1001</v>
+        <v>12002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>1003</v>
+        <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1001</v>
+        <v>12002</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>1004</v>
+        <v>2003</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
